--- a/src/test/resources/input.xlsx
+++ b/src/test/resources/input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="12504" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12510" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
@@ -75,16 +75,16 @@
     <t>Username or Password is invalid. Please try again.</t>
   </si>
   <si>
-    <t>actiTIME 2019.2 Pro</t>
-  </si>
-  <si>
     <t>Version</t>
+  </si>
+  <si>
+    <t>actiTIME 2019.3 Pro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,6 +158,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -205,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,7 +243,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,14 +458,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -476,7 +479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -504,13 +507,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -521,7 +524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -532,7 +535,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -541,7 +544,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -550,26 +553,26 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -578,7 +581,7 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -600,19 +603,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
